--- a/archive/benchmarks.xlsx
+++ b/archive/benchmarks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - FuckBench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - FuckBench\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A602E3-9325-41FE-8FC1-C012B7D6AD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673D9C2-2A95-4EFC-9CBB-BFDF706ADA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="13485" windowHeight="15480" xr2:uid="{9ABD8A58-D3BB-4318-B9A1-DF7273AC6AAF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{9ABD8A58-D3BB-4318-B9A1-DF7273AC6AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>V3 functional test</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>V1 functional test (NO TABLE OPTIMIZATION)</t>
+  </si>
+  <si>
+    <t>V3 (after improving logical ops in v.2.1) functional test</t>
   </si>
 </sst>
 </file>
@@ -428,28 +431,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AFFAE-0FBD-423B-8992-71BCE81CF5B4}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D2" s="7">
         <v>4905</v>
       </c>
@@ -462,12 +466,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.60958333333333337</v>
       </c>
@@ -485,7 +489,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.6404050925925926</v>
       </c>
@@ -501,7 +505,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D7" s="7">
         <f>AVERAGE(D5:D6)</f>
         <v>2107.5</v>
@@ -514,13 +518,14 @@
         <f>1-G7</f>
         <v>0.57033639143730885</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.50353009259259263</v>
       </c>
@@ -538,7 +543,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.55586805555555552</v>
       </c>
@@ -554,7 +559,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D12" s="7">
         <f>AVERAGE(D10:D11)</f>
         <v>2030</v>
@@ -567,13 +572,17 @@
         <f>1-G12</f>
         <v>3.6773428232502958E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="8">
+        <f>G12*$G$7</f>
+        <v>0.41386340468909277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.37703703703703706</v>
       </c>
@@ -591,7 +600,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.44888888888888889</v>
       </c>
@@ -607,7 +616,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="17" spans="4:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D17" s="7">
         <f>AVERAGE(D15:D16)</f>
         <v>1996</v>
@@ -619,6 +628,67 @@
       <c r="H17" s="9">
         <f>1-G17</f>
         <v>5.2906287069988123E-2</v>
+      </c>
+      <c r="J17" s="8">
+        <f>G17*$G$7</f>
+        <v>0.4069317023445464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>0.63765046296296302</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.63090277777777781</v>
+      </c>
+      <c r="C20" s="1">
+        <f>A20-B20</f>
+        <v>6.7476851851852038E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f>HOUR(C20)*3600+MINUTE(C20)*60+SECOND(C20)</f>
+        <v>583</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>0.65004629629629629</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.64322916666666663</v>
+      </c>
+      <c r="C21" s="1">
+        <f>A21-B21</f>
+        <v>6.8171296296296591E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <f>HOUR(C21)*3600+MINUTE(C21)*60+SECOND(C21)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="7">
+        <f>AVERAGE(D20:D21)</f>
+        <v>586</v>
+      </c>
+      <c r="G22" s="8">
+        <f>D22/$D$7</f>
+        <v>0.27805456702253856</v>
+      </c>
+      <c r="H22" s="9">
+        <f>1-G22</f>
+        <v>0.7219454329774615</v>
+      </c>
+      <c r="J22" s="8">
+        <f>G22*$G$7</f>
+        <v>0.11946992864424058</v>
       </c>
     </row>
   </sheetData>
